--- a/data/trans_bre/P7C_R-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P7C_R-Estudios-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L11"/>
+  <dimension ref="A1:P14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -527,6 +527,10 @@
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
     <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,15 +549,19 @@
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
       <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="inlineStr">
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="I1" s="3" t="n"/>
-      <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -580,32 +588,52 @@
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -622,6 +650,10 @@
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
       <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -636,52 +668,72 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-4,73</t>
+          <t>-1,33</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-6,75</t>
+          <t>1,58</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-6,11</t>
+          <t>-0,78</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,58</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-12,02</t>
+          <t>-13,18</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-43,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-45,22%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-40,43%</t>
+          <t>-15,2%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-17,63%</t>
+          <t>18,42%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>-21,74%</t>
+          <t>-8,78%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-6,61%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-54,72%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -694,52 +746,72 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,92; 0,0</t>
+          <t>-9,49; 6,06</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-20,35; 1,17</t>
+          <t>-5,92; 8,81</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-14,01; -0,05</t>
+          <t>-6,36; 3,73</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-6,4; 2,64</t>
+          <t>-5,34; 3,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-26,32; 4,81</t>
+          <t>-41,82; 1,43</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-73,17; 5,28</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-77,04; 16,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-64,9; 6,23</t>
+          <t>-74,49; 137,24</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-54,09; 44,28</t>
+          <t>-50,22; 179,19</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>-43,66; 9,55</t>
+          <t>-52,83; 60,69</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-48,52; 63,13</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-90,9; 12,74</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -756,52 +828,72 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>5,97</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>4,84</t>
+          <t>5,37</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2,62</t>
+          <t>3,63</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1,6</t>
+          <t>1,4</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-3,33</t>
+          <t>1,49</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>17,89%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>35,64%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>41,59%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>35,1%</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>-7,04%</t>
+          <t>24,38%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>6,57%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -814,52 +906,72 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,65; 6,73</t>
+          <t>-2,82; 13,15</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-0,72; 9,77</t>
+          <t>-3,94; 12,27</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-2,03; 7,06</t>
+          <t>-2,82; 8,58</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-4,34; 6,31</t>
+          <t>-4,54; 6,13</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-15,01; 7,09</t>
+          <t>-7,84; 8,27</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-15,22; 54,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-5,41; 89,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-11,52; 56,04</t>
+          <t>-16,13; 131,48</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-22,43; 48,07</t>
+          <t>-22,56; 108,31</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>-26,9; 17,01</t>
+          <t>-15,08; 76,09</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-23,1; 46,75</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-27,48; 44,77</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -876,52 +988,72 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>2,06</t>
+          <t>1,76</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>1,69</t>
+          <t>-0,47</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>3,88</t>
+          <t>3,06</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>5,87</t>
+          <t>5,53</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>9,76</t>
+          <t>2,88</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>11,17%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>23,34%</t>
+          <t>9,49%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>39,64%</t>
+          <t>-2,32%</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>31,53%</t>
+          <t>17,63%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>36,91%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>11,27%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -934,59 +1066,79 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-3,39; 7,91</t>
+          <t>-5,6; 9,07</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,2; 7,29</t>
+          <t>-8,12; 5,83</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-1,28; 8,88</t>
+          <t>-2,88; 8,07</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>1,12; 10,15</t>
+          <t>0,87; 10,43</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-6,02; 26,26</t>
+          <t>-4,36; 10,3</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-15,99; 53,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-20,21; 50,96</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-6,74; 64,09</t>
+          <t>-26,08; 64,36</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>6,05; 81,28</t>
+          <t>-32,46; 36,82</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>-13,83; 133,98</t>
+          <t>-13,84; 57,48</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>4,61; 83,44</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-14,34; 47,73</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -996,52 +1148,72 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>0,5</t>
+          <t>-1,28</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1,21</t>
+          <t>-2,23</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>0,67</t>
+          <t>-3,45</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>1,79</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,55</t>
+          <t>5,06</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>8,03%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>4,23%</t>
+          <t>-8,39%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>12,72%</t>
+          <t>-14,57%</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>-7,61%</t>
+          <t>-18,85%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>31,29%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1054,64 +1226,252 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-2,78; 3,61</t>
+          <t>-5,64; 2,28</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-2,71; 4,68</t>
+          <t>-8,38; 2,8</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,61; 3,72</t>
+          <t>-10,7; 3,63</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-1,6; 4,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-11,61; 4,87</t>
+          <t>-1,98; 10,37</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-15,97; 26,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-16,64; 36,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-14,29; 25,87</t>
+          <t>-31,62; 18,53</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-10,09; 36,0</t>
+          <t>-41,52; 24,59</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>-22,56; 11,52</t>
+          <t>-45,26; 27,36</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-10,19; 76,73</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>0,6</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>0,62</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>0,93</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>1,95</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>0,59</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>4,0%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>3,93%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>6,06%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>14,1%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>2,76%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>-2,59; 3,58</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>-3,35; 3,99</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>-2,17; 4,0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>-0,89; 4,97</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>-4,88; 4,57</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>-15,39; 27,29</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-17,79; 29,85</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-12,22; 28,8</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-7,14; 40,59</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-19,63; 24,62</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="7">
+  <mergeCells count="8">
+    <mergeCell ref="J1:P1"/>
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="H1:L1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:I1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
